--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2548253333333333</v>
+        <v>0.04191</v>
       </c>
       <c r="H2">
-        <v>0.764476</v>
+        <v>0.12573</v>
       </c>
       <c r="I2">
-        <v>0.00181063274871081</v>
+        <v>0.0003002276973850376</v>
       </c>
       <c r="J2">
-        <v>0.00181063274871081</v>
+        <v>0.0003002276973850376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>66.60629735620934</v>
+        <v>0.31380623802</v>
       </c>
       <c r="R2">
-        <v>599.456676205884</v>
+        <v>2.82425614218</v>
       </c>
       <c r="S2">
-        <v>0.001261771512232113</v>
+        <v>4.156337769323584E-05</v>
       </c>
       <c r="T2">
-        <v>0.001261771512232113</v>
+        <v>4.156337769323584E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2548253333333333</v>
+        <v>0.04191</v>
       </c>
       <c r="H3">
-        <v>0.764476</v>
+        <v>0.12573</v>
       </c>
       <c r="I3">
-        <v>0.00181063274871081</v>
+        <v>0.0003002276973850376</v>
       </c>
       <c r="J3">
-        <v>0.00181063274871081</v>
+        <v>0.0003002276973850376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>8.154264906576</v>
+        <v>1.34109602748</v>
       </c>
       <c r="R3">
-        <v>73.388384159184</v>
+        <v>12.06986424732</v>
       </c>
       <c r="S3">
-        <v>0.0001544721681087784</v>
+        <v>0.0001776270639639002</v>
       </c>
       <c r="T3">
-        <v>0.0001544721681087784</v>
+        <v>0.0001776270639639002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2548253333333333</v>
+        <v>0.04191</v>
       </c>
       <c r="H4">
-        <v>0.764476</v>
+        <v>0.12573</v>
       </c>
       <c r="I4">
-        <v>0.00181063274871081</v>
+        <v>0.0003002276973850376</v>
       </c>
       <c r="J4">
-        <v>0.00181063274871081</v>
+        <v>0.0003002276973850376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>20.81897974968134</v>
+        <v>0.6118366160500001</v>
       </c>
       <c r="R4">
-        <v>187.370817747132</v>
+        <v>5.50652954445</v>
       </c>
       <c r="S4">
-        <v>0.0003943890683699184</v>
+        <v>8.103725572790152E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003943890683699184</v>
+        <v>8.103725572790152E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>417.813278</v>
       </c>
       <c r="I5">
-        <v>0.9895750867169325</v>
+        <v>0.9976864582107258</v>
       </c>
       <c r="J5">
-        <v>0.9895750867169325</v>
+        <v>0.9976864582107259</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>36402.70647324514</v>
+        <v>1042.809297414972</v>
       </c>
       <c r="R5">
-        <v>327624.3582592063</v>
+        <v>9385.283676734747</v>
       </c>
       <c r="S5">
-        <v>0.6896029327444108</v>
+        <v>0.1381192323133933</v>
       </c>
       <c r="T5">
-        <v>0.6896029327444109</v>
+        <v>0.1381192323133933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>417.813278</v>
       </c>
       <c r="I6">
-        <v>0.9895750867169325</v>
+        <v>0.9976864582107258</v>
       </c>
       <c r="J6">
-        <v>0.9895750867169325</v>
+        <v>0.9976864582107259</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>4456.595302268327</v>
@@ -818,10 +818,10 @@
         <v>40109.35772041495</v>
       </c>
       <c r="S6">
-        <v>0.08442452466433968</v>
+        <v>0.5902723761733302</v>
       </c>
       <c r="T6">
-        <v>0.0844245246643397</v>
+        <v>0.5902723761733303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>417.813278</v>
       </c>
       <c r="I7">
-        <v>0.9895750867169325</v>
+        <v>0.9976864582107258</v>
       </c>
       <c r="J7">
-        <v>0.9895750867169325</v>
+        <v>0.9976864582107259</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>11378.31164592476</v>
+        <v>2033.193845162474</v>
       </c>
       <c r="R7">
-        <v>102404.8048133228</v>
+        <v>18298.74460646227</v>
       </c>
       <c r="S7">
-        <v>0.2155476293081819</v>
+        <v>0.2692948497240022</v>
       </c>
       <c r="T7">
-        <v>0.2155476293081819</v>
+        <v>0.2692948497240022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.212359</v>
+        <v>0.2810466666666667</v>
       </c>
       <c r="H8">
-        <v>3.637077</v>
+        <v>0.84314</v>
       </c>
       <c r="I8">
-        <v>0.008614280534356691</v>
+        <v>0.002013314091889132</v>
       </c>
       <c r="J8">
-        <v>0.008614280534356693</v>
+        <v>0.002013314091889132</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>316.886641528877</v>
+        <v>2.10437120436</v>
       </c>
       <c r="R8">
-        <v>2851.979773759893</v>
+        <v>18.93934083924</v>
       </c>
       <c r="S8">
-        <v>0.006003014020577018</v>
+        <v>0.0002787222323095114</v>
       </c>
       <c r="T8">
-        <v>0.00600301402057702</v>
+        <v>0.0002787222323095114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.212359</v>
+        <v>0.2810466666666667</v>
       </c>
       <c r="H9">
-        <v>3.637077</v>
+        <v>0.84314</v>
       </c>
       <c r="I9">
-        <v>0.008614280534356691</v>
+        <v>0.002013314091889132</v>
       </c>
       <c r="J9">
-        <v>0.008614280534356693</v>
+        <v>0.002013314091889132</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>38.794794530652</v>
+        <v>8.99333257464</v>
       </c>
       <c r="R9">
-        <v>349.153150775868</v>
+        <v>80.93999317175999</v>
       </c>
       <c r="S9">
-        <v>0.0007349179958148736</v>
+        <v>0.001191159490261058</v>
       </c>
       <c r="T9">
-        <v>0.0007349179958148738</v>
+        <v>0.001191159490261058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.212359</v>
+        <v>0.2810466666666667</v>
       </c>
       <c r="H10">
-        <v>3.637077</v>
+        <v>0.84314</v>
       </c>
       <c r="I10">
-        <v>0.008614280534356691</v>
+        <v>0.002013314091889132</v>
       </c>
       <c r="J10">
-        <v>0.008614280534356693</v>
+        <v>0.002013314091889132</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>99.04854097582101</v>
+        <v>4.102950166677777</v>
       </c>
       <c r="R10">
-        <v>891.4368687823891</v>
+        <v>36.9265515001</v>
       </c>
       <c r="S10">
-        <v>0.001876348517964799</v>
+        <v>0.0005434323693185627</v>
       </c>
       <c r="T10">
-        <v>0.001876348517964799</v>
+        <v>0.0005434323693185627</v>
       </c>
     </row>
   </sheetData>
